--- a/data_craw/quarter/balance_sheet_quarter/msb.xlsx
+++ b/data_craw/quarter/balance_sheet_quarter/msb.xlsx
@@ -441,82 +441,82 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>2019_q3</t>
+          <t>2020_q3</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>2019_q4</t>
+          <t>2020_q4</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>2020_q1</t>
+          <t>2021_q1</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>2020_q2</t>
+          <t>2021_q2</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>2020_q3</t>
+          <t>2021_q3</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>2020_q4</t>
+          <t>2021_q4</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>2021_q1</t>
+          <t>2022_q1</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>2021_q2</t>
+          <t>2022_q2</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>2021_q3</t>
+          <t>2022_q3</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>2021_q4</t>
+          <t>2022_q4</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>2022_q1</t>
+          <t>2023_q1</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>2022_q2</t>
+          <t>2023_q2</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>2022_q3</t>
+          <t>2023_q3</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>2022_q4</t>
+          <t>2023_q4</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>2023_q1</t>
+          <t>2024_q1</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>2023_q2</t>
+          <t>2024_q2</t>
         </is>
       </c>
     </row>
@@ -573,53 +573,45 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2212425000000</v>
+        <v>1511780000000</v>
       </c>
       <c r="C4" t="n">
-        <v>2495237000000</v>
+        <v>2204642000000</v>
       </c>
       <c r="D4" t="n">
-        <v>2591280000000</v>
+        <v>1998604000000</v>
       </c>
       <c r="E4" t="n">
-        <v>2007009000000</v>
+        <v>1921020000000</v>
       </c>
       <c r="F4" t="n">
-        <v>1511780000000</v>
+        <v>1682623000000</v>
       </c>
       <c r="G4" t="n">
-        <v>2204642000000</v>
+        <v>1524098000000</v>
       </c>
       <c r="H4" t="n">
-        <v>1998604000000</v>
+        <v>1521156000000</v>
       </c>
       <c r="I4" t="n">
-        <v>1921020000000</v>
+        <v>1631603000000</v>
       </c>
       <c r="J4" t="n">
-        <v>1682623000000</v>
+        <v>1648359000000</v>
       </c>
       <c r="K4" t="n">
-        <v>1524098000000</v>
+        <v>1393551000000</v>
       </c>
       <c r="L4" t="n">
-        <v>1521156000000</v>
+        <v>1323308630549</v>
       </c>
       <c r="M4" t="n">
-        <v>1631603000000</v>
-      </c>
-      <c r="N4" t="n">
-        <v>1648359000000</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1393551000000</v>
-      </c>
-      <c r="P4" t="n">
-        <v>1323308630549</v>
-      </c>
-      <c r="Q4" t="n">
         <v>1153462000000</v>
       </c>
+      <c r="N4" t="inlineStr"/>
+      <c r="O4" t="inlineStr"/>
+      <c r="P4" t="inlineStr"/>
+      <c r="Q4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -674,53 +666,45 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>895710000000</v>
+        <v>2860341000000</v>
       </c>
       <c r="C7" t="n">
-        <v>4070948000000</v>
+        <v>1850921000000</v>
       </c>
       <c r="D7" t="n">
-        <v>1217790000000</v>
+        <v>4068142000000</v>
       </c>
       <c r="E7" t="n">
-        <v>1207704000000</v>
+        <v>2182131000000</v>
       </c>
       <c r="F7" t="n">
-        <v>2860341000000</v>
+        <v>1415660000000</v>
       </c>
       <c r="G7" t="n">
-        <v>1850921000000</v>
+        <v>3056674000000</v>
       </c>
       <c r="H7" t="n">
-        <v>4068142000000</v>
+        <v>1258545000000</v>
       </c>
       <c r="I7" t="n">
-        <v>2182131000000</v>
+        <v>2120958</v>
       </c>
       <c r="J7" t="n">
-        <v>1415660000000</v>
+        <v>1518840000000</v>
       </c>
       <c r="K7" t="n">
-        <v>3056674000000</v>
+        <v>3689730000000</v>
       </c>
       <c r="L7" t="n">
-        <v>1258545000000</v>
+        <v>2846986245124</v>
       </c>
       <c r="M7" t="n">
-        <v>2120958</v>
-      </c>
-      <c r="N7" t="n">
-        <v>1518840000000</v>
-      </c>
-      <c r="O7" t="n">
-        <v>3689730000000</v>
-      </c>
-      <c r="P7" t="n">
-        <v>2846986245124</v>
-      </c>
-      <c r="Q7" t="n">
         <v>2511572000000</v>
       </c>
+      <c r="N7" t="inlineStr"/>
+      <c r="O7" t="inlineStr"/>
+      <c r="P7" t="inlineStr"/>
+      <c r="Q7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -798,53 +782,45 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>24153476000000</v>
+        <v>17844564000000</v>
       </c>
       <c r="C11" t="n">
-        <v>20578997000000</v>
+        <v>16977765000000</v>
       </c>
       <c r="D11" t="n">
-        <v>16764401000000</v>
+        <v>18607438000000</v>
       </c>
       <c r="E11" t="n">
-        <v>19422727000000</v>
+        <v>19867948000000</v>
       </c>
       <c r="F11" t="n">
-        <v>17844564000000</v>
+        <v>28246318000000</v>
       </c>
       <c r="G11" t="n">
-        <v>16977765000000</v>
+        <v>33441936000000</v>
       </c>
       <c r="H11" t="n">
-        <v>18607438000000</v>
+        <v>24105507000000</v>
       </c>
       <c r="I11" t="n">
-        <v>19867948000000</v>
+        <v>27914845000000</v>
       </c>
       <c r="J11" t="n">
-        <v>28246318000000</v>
+        <v>36056586000000</v>
       </c>
       <c r="K11" t="n">
-        <v>33441936000000</v>
+        <v>39243600000000</v>
       </c>
       <c r="L11" t="n">
-        <v>24105507000000</v>
+        <v>58876471565657</v>
       </c>
       <c r="M11" t="n">
-        <v>27914845000000</v>
-      </c>
-      <c r="N11" t="n">
-        <v>36056586000000</v>
-      </c>
-      <c r="O11" t="n">
-        <v>39243600000000</v>
-      </c>
-      <c r="P11" t="n">
-        <v>58876471565657</v>
-      </c>
-      <c r="Q11" t="n">
         <v>54091937000000</v>
       </c>
+      <c r="N11" t="inlineStr"/>
+      <c r="O11" t="inlineStr"/>
+      <c r="P11" t="inlineStr"/>
+      <c r="Q11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -853,53 +829,45 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>19524779000000</v>
+        <v>15072811000000</v>
       </c>
       <c r="C12" t="n">
-        <v>18556328000000</v>
+        <v>14730353000000</v>
       </c>
       <c r="D12" t="n">
-        <v>13647222000000</v>
+        <v>16619920000000</v>
       </c>
       <c r="E12" t="n">
-        <v>16072928000000</v>
+        <v>16762479000000</v>
       </c>
       <c r="F12" t="n">
-        <v>15072811000000</v>
+        <v>18973692000000</v>
       </c>
       <c r="G12" t="n">
-        <v>14730353000000</v>
+        <v>19909194000000</v>
       </c>
       <c r="H12" t="n">
-        <v>16619920000000</v>
+        <v>16058482000000</v>
       </c>
       <c r="I12" t="n">
-        <v>16762479000000</v>
+        <v>18400658000000</v>
       </c>
       <c r="J12" t="n">
-        <v>18973692000000</v>
+        <v>23515087000000</v>
       </c>
       <c r="K12" t="n">
-        <v>19909194000000</v>
+        <v>29363640000000</v>
       </c>
       <c r="L12" t="n">
-        <v>16058482000000</v>
+        <v>50149141295369</v>
       </c>
       <c r="M12" t="n">
-        <v>18400658000000</v>
-      </c>
-      <c r="N12" t="n">
-        <v>23515087000000</v>
-      </c>
-      <c r="O12" t="n">
-        <v>29363640000000</v>
-      </c>
-      <c r="P12" t="n">
-        <v>50149141295369</v>
-      </c>
-      <c r="Q12" t="n">
         <v>44352703000000</v>
       </c>
+      <c r="N12" t="inlineStr"/>
+      <c r="O12" t="inlineStr"/>
+      <c r="P12" t="inlineStr"/>
+      <c r="Q12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -908,53 +876,45 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>4741672000000</v>
+        <v>2771753000000</v>
       </c>
       <c r="C13" t="n">
-        <v>2135589000000</v>
+        <v>2247412000000</v>
       </c>
       <c r="D13" t="n">
-        <v>3230267000000</v>
+        <v>1987518000000</v>
       </c>
       <c r="E13" t="n">
-        <v>3462962000000</v>
+        <v>3105469000000</v>
       </c>
       <c r="F13" t="n">
-        <v>2771753000000</v>
+        <v>9272626000000</v>
       </c>
       <c r="G13" t="n">
-        <v>2247412000000</v>
+        <v>13532742000000</v>
       </c>
       <c r="H13" t="n">
-        <v>1987518000000</v>
+        <v>8047025000000</v>
       </c>
       <c r="I13" t="n">
-        <v>3105469000000</v>
+        <v>9514187000000</v>
       </c>
       <c r="J13" t="n">
-        <v>9272626000000</v>
+        <v>12541499000000</v>
       </c>
       <c r="K13" t="n">
-        <v>13532742000000</v>
+        <v>9879960000000</v>
       </c>
       <c r="L13" t="n">
-        <v>8047025000000</v>
+        <v>8727330270288</v>
       </c>
       <c r="M13" t="n">
-        <v>9514187000000</v>
-      </c>
-      <c r="N13" t="n">
-        <v>12541499000000</v>
-      </c>
-      <c r="O13" t="n">
-        <v>9879960000000</v>
-      </c>
-      <c r="P13" t="n">
-        <v>8727330270288</v>
-      </c>
-      <c r="Q13" t="n">
         <v>9739234000000</v>
       </c>
+      <c r="N13" t="inlineStr"/>
+      <c r="O13" t="inlineStr"/>
+      <c r="P13" t="inlineStr"/>
+      <c r="Q13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1077,18 +1037,10 @@
           <t>8. Tài sản Thiếu chờ xử lý</t>
         </is>
       </c>
-      <c r="B19" t="n">
-        <v>-112975000000</v>
-      </c>
-      <c r="C19" t="n">
-        <v>-112920000000</v>
-      </c>
-      <c r="D19" t="n">
-        <v>-113088000000</v>
-      </c>
-      <c r="E19" t="n">
-        <v>-113163000000</v>
-      </c>
+      <c r="B19" t="inlineStr"/>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr"/>
       <c r="H19" t="inlineStr"/>
@@ -1109,51 +1061,43 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>59259000000</v>
+        <v>55796000000</v>
       </c>
       <c r="C20" t="n">
-        <v>55796000000</v>
+        <v>21050000000</v>
       </c>
       <c r="D20" t="n">
-        <v>55796000000</v>
+        <v>21050000000</v>
       </c>
       <c r="E20" t="n">
-        <v>55796000000</v>
+        <v>21050000000</v>
       </c>
       <c r="F20" t="n">
-        <v>55796000000</v>
+        <v>21050000000</v>
       </c>
       <c r="G20" t="n">
-        <v>21050000000</v>
+        <v>23487000000</v>
       </c>
       <c r="H20" t="n">
-        <v>21050000000</v>
+        <v>23487000000</v>
       </c>
       <c r="I20" t="n">
-        <v>21050000000</v>
+        <v>22146000000</v>
       </c>
       <c r="J20" t="n">
-        <v>21050000000</v>
+        <v>22146000000</v>
       </c>
       <c r="K20" t="n">
-        <v>23487000000</v>
-      </c>
-      <c r="L20" t="n">
-        <v>23487000000</v>
-      </c>
+        <v>21675000000</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
       <c r="M20" t="n">
-        <v>22146000000</v>
-      </c>
-      <c r="N20" t="n">
-        <v>22146000000</v>
-      </c>
-      <c r="O20" t="n">
-        <v>21675000000</v>
-      </c>
+        <v>2204000000</v>
+      </c>
+      <c r="N20" t="inlineStr"/>
+      <c r="O20" t="inlineStr"/>
       <c r="P20" t="inlineStr"/>
-      <c r="Q20" t="n">
-        <v>2204000000</v>
-      </c>
+      <c r="Q20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1165,16 +1109,16 @@
         <v>127927000000</v>
       </c>
       <c r="C21" t="n">
-        <v>127927000000</v>
+        <v>39287000000</v>
       </c>
       <c r="D21" t="n">
-        <v>127927000000</v>
+        <v>39287000000</v>
       </c>
       <c r="E21" t="n">
-        <v>127927000000</v>
+        <v>39287000000</v>
       </c>
       <c r="F21" t="n">
-        <v>127927000000</v>
+        <v>39287000000</v>
       </c>
       <c r="G21" t="n">
         <v>39287000000</v>
@@ -1191,22 +1135,14 @@
       <c r="K21" t="n">
         <v>39287000000</v>
       </c>
-      <c r="L21" t="n">
-        <v>39287000000</v>
-      </c>
+      <c r="L21" t="inlineStr"/>
       <c r="M21" t="n">
         <v>39287000000</v>
       </c>
-      <c r="N21" t="n">
-        <v>39287000000</v>
-      </c>
-      <c r="O21" t="n">
-        <v>39287000000</v>
-      </c>
+      <c r="N21" t="inlineStr"/>
+      <c r="O21" t="inlineStr"/>
       <c r="P21" t="inlineStr"/>
-      <c r="Q21" t="n">
-        <v>39287000000</v>
-      </c>
+      <c r="Q21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1215,51 +1151,43 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-68668000000</v>
+        <v>-72131000000</v>
       </c>
       <c r="C22" t="n">
-        <v>-72131000000</v>
+        <v>-18237000000</v>
       </c>
       <c r="D22" t="n">
-        <v>-72131000000</v>
+        <v>-18237000000</v>
       </c>
       <c r="E22" t="n">
-        <v>-72131000000</v>
+        <v>-18237000000</v>
       </c>
       <c r="F22" t="n">
-        <v>-72131000000</v>
+        <v>-18237000000</v>
       </c>
       <c r="G22" t="n">
-        <v>-18237000000</v>
+        <v>-15800000000</v>
       </c>
       <c r="H22" t="n">
-        <v>-18237000000</v>
+        <v>-15800000000</v>
       </c>
       <c r="I22" t="n">
-        <v>-18237000000</v>
+        <v>-17141000000</v>
       </c>
       <c r="J22" t="n">
-        <v>-18237000000</v>
+        <v>-17141000000</v>
       </c>
       <c r="K22" t="n">
-        <v>-15800000000</v>
-      </c>
-      <c r="L22" t="n">
-        <v>-15800000000</v>
-      </c>
+        <v>-17612000000</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
       <c r="M22" t="n">
-        <v>-17141000000</v>
-      </c>
-      <c r="N22" t="n">
-        <v>-17141000000</v>
-      </c>
-      <c r="O22" t="n">
-        <v>-17612000000</v>
-      </c>
+        <v>-17183000000</v>
+      </c>
+      <c r="N22" t="inlineStr"/>
+      <c r="O22" t="inlineStr"/>
       <c r="P22" t="inlineStr"/>
-      <c r="Q22" t="n">
-        <v>-17183000000</v>
-      </c>
+      <c r="Q22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1267,34 +1195,32 @@
           <t>V.Tài sản ngắn hạn khác</t>
         </is>
       </c>
-      <c r="B23" t="n">
-        <v>24894000000</v>
-      </c>
+      <c r="B23" t="inlineStr"/>
       <c r="C23" t="inlineStr"/>
-      <c r="D23" t="inlineStr"/>
-      <c r="E23" t="inlineStr"/>
+      <c r="D23" t="n">
+        <v>18489000000</v>
+      </c>
+      <c r="E23" t="n">
+        <v>31510000000</v>
+      </c>
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr"/>
       <c r="H23" t="n">
-        <v>18489000000</v>
+        <v>9277000000</v>
       </c>
       <c r="I23" t="n">
-        <v>31510000000</v>
-      </c>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>9277000000</v>
-      </c>
-      <c r="M23" t="n">
         <v>63159000000</v>
       </c>
-      <c r="N23" t="n">
+      <c r="J23" t="n">
         <v>210882000000</v>
       </c>
-      <c r="O23" t="n">
+      <c r="K23" t="n">
         <v>446344000000</v>
       </c>
+      <c r="L23" t="inlineStr"/>
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="inlineStr"/>
+      <c r="O23" t="inlineStr"/>
       <c r="P23" t="inlineStr"/>
       <c r="Q23" t="inlineStr"/>
     </row>
@@ -1443,53 +1369,45 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>10036000000</v>
+        <v>22036000000</v>
       </c>
       <c r="C30" t="n">
-        <v>10036000000</v>
+        <v>22036000000</v>
       </c>
       <c r="D30" t="n">
-        <v>10036000000</v>
+        <v>22036000000</v>
       </c>
       <c r="E30" t="n">
-        <v>216557000000</v>
+        <v>22036000000</v>
       </c>
       <c r="F30" t="n">
         <v>22036000000</v>
       </c>
       <c r="G30" t="n">
-        <v>22036000000</v>
+        <v>10036000000</v>
       </c>
       <c r="H30" t="n">
-        <v>22036000000</v>
+        <v>10036000000</v>
       </c>
       <c r="I30" t="n">
-        <v>22036000000</v>
+        <v>10036000000</v>
       </c>
       <c r="J30" t="n">
-        <v>22036000000</v>
+        <v>10036000000</v>
       </c>
       <c r="K30" t="n">
         <v>10036000000</v>
       </c>
       <c r="L30" t="n">
-        <v>10036000000</v>
+        <v>10035875198</v>
       </c>
       <c r="M30" t="n">
         <v>10036000000</v>
       </c>
-      <c r="N30" t="n">
-        <v>10036000000</v>
-      </c>
-      <c r="O30" t="n">
-        <v>10036000000</v>
-      </c>
-      <c r="P30" t="n">
-        <v>10035875198</v>
-      </c>
-      <c r="Q30" t="n">
-        <v>10036000000</v>
-      </c>
+      <c r="N30" t="inlineStr"/>
+      <c r="O30" t="inlineStr"/>
+      <c r="P30" t="inlineStr"/>
+      <c r="Q30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1567,53 +1485,45 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>10036000000</v>
+        <v>22036000000</v>
       </c>
       <c r="C34" t="n">
-        <v>10036000000</v>
+        <v>22036000000</v>
       </c>
       <c r="D34" t="n">
-        <v>10036000000</v>
+        <v>22036000000</v>
       </c>
       <c r="E34" t="n">
-        <v>216557000000</v>
+        <v>22036000000</v>
       </c>
       <c r="F34" t="n">
         <v>22036000000</v>
       </c>
       <c r="G34" t="n">
-        <v>22036000000</v>
+        <v>10036000000</v>
       </c>
       <c r="H34" t="n">
-        <v>22036000000</v>
+        <v>10036000000</v>
       </c>
       <c r="I34" t="n">
-        <v>22036000000</v>
+        <v>10036000000</v>
       </c>
       <c r="J34" t="n">
-        <v>22036000000</v>
+        <v>10036000000</v>
       </c>
       <c r="K34" t="n">
         <v>10036000000</v>
       </c>
       <c r="L34" t="n">
-        <v>10036000000</v>
+        <v>10035875198</v>
       </c>
       <c r="M34" t="n">
         <v>10036000000</v>
       </c>
-      <c r="N34" t="n">
-        <v>10036000000</v>
-      </c>
-      <c r="O34" t="n">
-        <v>10036000000</v>
-      </c>
-      <c r="P34" t="n">
-        <v>10035875198</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>10036000000</v>
-      </c>
+      <c r="N34" t="inlineStr"/>
+      <c r="O34" t="inlineStr"/>
+      <c r="P34" t="inlineStr"/>
+      <c r="Q34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1691,53 +1601,45 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>302856000000</v>
+        <v>283075000000</v>
       </c>
       <c r="C38" t="n">
-        <v>330514000000</v>
+        <v>308751000000</v>
       </c>
       <c r="D38" t="n">
-        <v>313772000000</v>
+        <v>290691000000</v>
       </c>
       <c r="E38" t="n">
-        <v>301778000000</v>
+        <v>298611000000</v>
       </c>
       <c r="F38" t="n">
-        <v>283075000000</v>
+        <v>283339000000</v>
       </c>
       <c r="G38" t="n">
-        <v>308751000000</v>
+        <v>311581000000</v>
       </c>
       <c r="H38" t="n">
-        <v>290691000000</v>
+        <v>294401000000</v>
       </c>
       <c r="I38" t="n">
-        <v>298611000000</v>
+        <v>320704000000</v>
       </c>
       <c r="J38" t="n">
-        <v>283339000000</v>
+        <v>343474000000</v>
       </c>
       <c r="K38" t="n">
-        <v>311581000000</v>
+        <v>382873000000</v>
       </c>
       <c r="L38" t="n">
-        <v>294401000000</v>
+        <v>379345455497</v>
       </c>
       <c r="M38" t="n">
-        <v>320704000000</v>
-      </c>
-      <c r="N38" t="n">
-        <v>343474000000</v>
-      </c>
-      <c r="O38" t="n">
-        <v>382873000000</v>
-      </c>
-      <c r="P38" t="n">
-        <v>379345455497</v>
-      </c>
-      <c r="Q38" t="n">
         <v>348170000000</v>
       </c>
+      <c r="N38" t="inlineStr"/>
+      <c r="O38" t="inlineStr"/>
+      <c r="P38" t="inlineStr"/>
+      <c r="Q38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -1746,53 +1648,45 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>140467000000</v>
+        <v>135153000000</v>
       </c>
       <c r="C39" t="n">
-        <v>161256000000</v>
+        <v>127909000000</v>
       </c>
       <c r="D39" t="n">
-        <v>152466000000</v>
+        <v>118942000000</v>
       </c>
       <c r="E39" t="n">
-        <v>145145000000</v>
+        <v>113216000000</v>
       </c>
       <c r="F39" t="n">
-        <v>135153000000</v>
+        <v>102506000000</v>
       </c>
       <c r="G39" t="n">
-        <v>127909000000</v>
+        <v>133753000000</v>
       </c>
       <c r="H39" t="n">
-        <v>118942000000</v>
+        <v>125757000000</v>
       </c>
       <c r="I39" t="n">
-        <v>113216000000</v>
+        <v>117238000000</v>
       </c>
       <c r="J39" t="n">
-        <v>102506000000</v>
+        <v>132695000000</v>
       </c>
       <c r="K39" t="n">
-        <v>133753000000</v>
+        <v>153330000000</v>
       </c>
       <c r="L39" t="n">
-        <v>125757000000</v>
+        <v>188161146382</v>
       </c>
       <c r="M39" t="n">
-        <v>117238000000</v>
-      </c>
-      <c r="N39" t="n">
-        <v>132695000000</v>
-      </c>
-      <c r="O39" t="n">
-        <v>153330000000</v>
-      </c>
-      <c r="P39" t="n">
-        <v>188161146382</v>
-      </c>
-      <c r="Q39" t="n">
         <v>136165000000</v>
       </c>
+      <c r="N39" t="inlineStr"/>
+      <c r="O39" t="inlineStr"/>
+      <c r="P39" t="inlineStr"/>
+      <c r="Q39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -1801,53 +1695,45 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>711054000000</v>
+        <v>730337000000</v>
       </c>
       <c r="C40" t="n">
-        <v>744401000000</v>
+        <v>700273000000</v>
       </c>
       <c r="D40" t="n">
-        <v>746869000000</v>
+        <v>698644000000</v>
       </c>
       <c r="E40" t="n">
-        <v>746363000000</v>
+        <v>701064000000</v>
       </c>
       <c r="F40" t="n">
-        <v>730337000000</v>
+        <v>591628000000</v>
       </c>
       <c r="G40" t="n">
-        <v>700273000000</v>
+        <v>625105000000</v>
       </c>
       <c r="H40" t="n">
-        <v>698644000000</v>
+        <v>587726000000</v>
       </c>
       <c r="I40" t="n">
-        <v>701064000000</v>
+        <v>588077000000</v>
       </c>
       <c r="J40" t="n">
-        <v>591628000000</v>
+        <v>614765000000</v>
       </c>
       <c r="K40" t="n">
-        <v>625105000000</v>
+        <v>606147000000</v>
       </c>
       <c r="L40" t="n">
-        <v>587726000000</v>
+        <v>659361919966</v>
       </c>
       <c r="M40" t="n">
-        <v>588077000000</v>
-      </c>
-      <c r="N40" t="n">
-        <v>614765000000</v>
-      </c>
-      <c r="O40" t="n">
-        <v>606147000000</v>
-      </c>
-      <c r="P40" t="n">
-        <v>659361919966</v>
-      </c>
-      <c r="Q40" t="n">
         <v>598303000000</v>
       </c>
+      <c r="N40" t="inlineStr"/>
+      <c r="O40" t="inlineStr"/>
+      <c r="P40" t="inlineStr"/>
+      <c r="Q40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -1856,53 +1742,45 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>-570587000000</v>
+        <v>-595184000000</v>
       </c>
       <c r="C41" t="n">
-        <v>-583145000000</v>
+        <v>-572364000000</v>
       </c>
       <c r="D41" t="n">
-        <v>-594403000000</v>
+        <v>-579702000000</v>
       </c>
       <c r="E41" t="n">
-        <v>-601218000000</v>
+        <v>-587848000000</v>
       </c>
       <c r="F41" t="n">
-        <v>-595184000000</v>
+        <v>-489122000000</v>
       </c>
       <c r="G41" t="n">
-        <v>-572364000000</v>
+        <v>-491352000000</v>
       </c>
       <c r="H41" t="n">
-        <v>-579702000000</v>
+        <v>-461969000000</v>
       </c>
       <c r="I41" t="n">
-        <v>-587848000000</v>
+        <v>-470839000000</v>
       </c>
       <c r="J41" t="n">
-        <v>-489122000000</v>
+        <v>-482070000000</v>
       </c>
       <c r="K41" t="n">
-        <v>-491352000000</v>
+        <v>-452817000000</v>
       </c>
       <c r="L41" t="n">
-        <v>-461969000000</v>
+        <v>-471200773584</v>
       </c>
       <c r="M41" t="n">
-        <v>-470839000000</v>
-      </c>
-      <c r="N41" t="n">
-        <v>-482070000000</v>
-      </c>
-      <c r="O41" t="n">
-        <v>-452817000000</v>
-      </c>
-      <c r="P41" t="n">
-        <v>-471200773584</v>
-      </c>
-      <c r="Q41" t="n">
         <v>-462138000000</v>
       </c>
+      <c r="N41" t="inlineStr"/>
+      <c r="O41" t="inlineStr"/>
+      <c r="P41" t="inlineStr"/>
+      <c r="Q41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -1980,53 +1858,45 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>162389000000</v>
+        <v>147922000000</v>
       </c>
       <c r="C45" t="n">
-        <v>169258000000</v>
+        <v>180842000000</v>
       </c>
       <c r="D45" t="n">
-        <v>161306000000</v>
+        <v>171749000000</v>
       </c>
       <c r="E45" t="n">
-        <v>156633000000</v>
+        <v>185395000000</v>
       </c>
       <c r="F45" t="n">
-        <v>147922000000</v>
+        <v>180833000000</v>
       </c>
       <c r="G45" t="n">
-        <v>180842000000</v>
+        <v>177828000000</v>
       </c>
       <c r="H45" t="n">
-        <v>171749000000</v>
+        <v>168644000000</v>
       </c>
       <c r="I45" t="n">
-        <v>185395000000</v>
+        <v>203466000000</v>
       </c>
       <c r="J45" t="n">
-        <v>180833000000</v>
+        <v>210779000000</v>
       </c>
       <c r="K45" t="n">
-        <v>177828000000</v>
+        <v>229543000000</v>
       </c>
       <c r="L45" t="n">
-        <v>168644000000</v>
+        <v>191184309115</v>
       </c>
       <c r="M45" t="n">
-        <v>203466000000</v>
-      </c>
-      <c r="N45" t="n">
-        <v>210779000000</v>
-      </c>
-      <c r="O45" t="n">
-        <v>229543000000</v>
-      </c>
-      <c r="P45" t="n">
-        <v>191184309115</v>
-      </c>
-      <c r="Q45" t="n">
         <v>212005000000</v>
       </c>
+      <c r="N45" t="inlineStr"/>
+      <c r="O45" t="inlineStr"/>
+      <c r="P45" t="inlineStr"/>
+      <c r="Q45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -2035,53 +1905,45 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>483242000000</v>
+        <v>419274000000</v>
       </c>
       <c r="C46" t="n">
-        <v>503315000000</v>
+        <v>468203000000</v>
       </c>
       <c r="D46" t="n">
-        <v>507819000000</v>
+        <v>469282000000</v>
       </c>
       <c r="E46" t="n">
-        <v>512656000000</v>
+        <v>494252000000</v>
       </c>
       <c r="F46" t="n">
-        <v>419274000000</v>
+        <v>500854000000</v>
       </c>
       <c r="G46" t="n">
-        <v>468203000000</v>
+        <v>515078000000</v>
       </c>
       <c r="H46" t="n">
-        <v>469282000000</v>
+        <v>515615000000</v>
       </c>
       <c r="I46" t="n">
-        <v>494252000000</v>
+        <v>562556000000</v>
       </c>
       <c r="J46" t="n">
-        <v>500854000000</v>
+        <v>580066000000</v>
       </c>
       <c r="K46" t="n">
-        <v>515078000000</v>
+        <v>618177000000</v>
       </c>
       <c r="L46" t="n">
-        <v>515615000000</v>
+        <v>631051181175</v>
       </c>
       <c r="M46" t="n">
-        <v>562556000000</v>
-      </c>
-      <c r="N46" t="n">
-        <v>580066000000</v>
-      </c>
-      <c r="O46" t="n">
-        <v>618177000000</v>
-      </c>
-      <c r="P46" t="n">
-        <v>631051181175</v>
-      </c>
-      <c r="Q46" t="n">
         <v>623828000000</v>
       </c>
+      <c r="N46" t="inlineStr"/>
+      <c r="O46" t="inlineStr"/>
+      <c r="P46" t="inlineStr"/>
+      <c r="Q46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -2090,53 +1952,45 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>-320853000000</v>
+        <v>-271352000000</v>
       </c>
       <c r="C47" t="n">
-        <v>-334057000000</v>
+        <v>-287361000000</v>
       </c>
       <c r="D47" t="n">
-        <v>-346513000000</v>
+        <v>-297533000000</v>
       </c>
       <c r="E47" t="n">
-        <v>-356023000000</v>
+        <v>-308857000000</v>
       </c>
       <c r="F47" t="n">
-        <v>-271352000000</v>
+        <v>-320021000000</v>
       </c>
       <c r="G47" t="n">
-        <v>-287361000000</v>
+        <v>-337250000000</v>
       </c>
       <c r="H47" t="n">
-        <v>-297533000000</v>
+        <v>-346971000000</v>
       </c>
       <c r="I47" t="n">
-        <v>-308857000000</v>
+        <v>-359090000000</v>
       </c>
       <c r="J47" t="n">
-        <v>-320021000000</v>
+        <v>-369287000000</v>
       </c>
       <c r="K47" t="n">
-        <v>-337250000000</v>
+        <v>-388634000000</v>
       </c>
       <c r="L47" t="n">
-        <v>-346971000000</v>
+        <v>-439866872060</v>
       </c>
       <c r="M47" t="n">
-        <v>-359090000000</v>
-      </c>
-      <c r="N47" t="n">
-        <v>-369287000000</v>
-      </c>
-      <c r="O47" t="n">
-        <v>-388634000000</v>
-      </c>
-      <c r="P47" t="n">
-        <v>-439866872060</v>
-      </c>
-      <c r="Q47" t="n">
         <v>-411823000000</v>
       </c>
+      <c r="N47" t="inlineStr"/>
+      <c r="O47" t="inlineStr"/>
+      <c r="P47" t="inlineStr"/>
+      <c r="Q47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -2214,32 +2068,24 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>1068931000000</v>
+        <v>1039339000000</v>
       </c>
       <c r="C51" t="n">
-        <v>1059826000000</v>
+        <v>1032510000000</v>
       </c>
       <c r="D51" t="n">
-        <v>1052997000000</v>
+        <v>1025682000000</v>
       </c>
       <c r="E51" t="n">
-        <v>1046168000000</v>
+        <v>1021129000000</v>
       </c>
       <c r="F51" t="n">
-        <v>1039339000000</v>
-      </c>
-      <c r="G51" t="n">
-        <v>1032510000000</v>
-      </c>
-      <c r="H51" t="n">
-        <v>1025682000000</v>
-      </c>
-      <c r="I51" t="n">
-        <v>1021129000000</v>
-      </c>
-      <c r="J51" t="n">
         <v>1014300000000</v>
       </c>
+      <c r="G51" t="inlineStr"/>
+      <c r="H51" t="inlineStr"/>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
       <c r="M51" t="inlineStr"/>
@@ -2269,18 +2115,10 @@
       <c r="F52" t="n">
         <v>1253600000000</v>
       </c>
-      <c r="G52" t="n">
-        <v>1253600000000</v>
-      </c>
-      <c r="H52" t="n">
-        <v>1253600000000</v>
-      </c>
-      <c r="I52" t="n">
-        <v>1253600000000</v>
-      </c>
-      <c r="J52" t="n">
-        <v>1253600000000</v>
-      </c>
+      <c r="G52" t="inlineStr"/>
+      <c r="H52" t="inlineStr"/>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
       <c r="M52" t="inlineStr"/>
@@ -2296,32 +2134,24 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>-184669000000</v>
+        <v>-214261000000</v>
       </c>
       <c r="C53" t="n">
-        <v>-193774000000</v>
+        <v>-221090000000</v>
       </c>
       <c r="D53" t="n">
-        <v>-200603000000</v>
+        <v>-227918000000</v>
       </c>
       <c r="E53" t="n">
-        <v>-207432000000</v>
+        <v>-232471000000</v>
       </c>
       <c r="F53" t="n">
-        <v>-214261000000</v>
-      </c>
-      <c r="G53" t="n">
-        <v>-221090000000</v>
-      </c>
-      <c r="H53" t="n">
-        <v>-227918000000</v>
-      </c>
-      <c r="I53" t="n">
-        <v>-232471000000</v>
-      </c>
-      <c r="J53" t="n">
         <v>-239300000000</v>
       </c>
+      <c r="G53" t="inlineStr"/>
+      <c r="H53" t="inlineStr"/>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
       <c r="M53" t="inlineStr"/>
@@ -2337,53 +2167,45 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>19652439000000</v>
+        <v>17819047000000</v>
       </c>
       <c r="C54" t="n">
-        <v>20032502000000</v>
+        <v>20105455000000</v>
       </c>
       <c r="D54" t="n">
-        <v>19957622000000</v>
+        <v>20912411000000</v>
       </c>
       <c r="E54" t="n">
-        <v>17960844000000</v>
+        <v>20665980000000</v>
       </c>
       <c r="F54" t="n">
-        <v>17819047000000</v>
+        <v>19852765000000</v>
       </c>
       <c r="G54" t="n">
-        <v>20105455000000</v>
+        <v>17195677000000</v>
       </c>
       <c r="H54" t="n">
-        <v>20912411000000</v>
+        <v>13648250000000</v>
       </c>
       <c r="I54" t="n">
-        <v>20665980000000</v>
+        <v>12111339000000</v>
       </c>
       <c r="J54" t="n">
-        <v>19852765000000</v>
+        <v>13795037000000</v>
       </c>
       <c r="K54" t="n">
-        <v>17195677000000</v>
+        <v>17458686000000</v>
       </c>
       <c r="L54" t="n">
-        <v>13648250000000</v>
+        <v>15237040225860</v>
       </c>
       <c r="M54" t="n">
-        <v>12111339000000</v>
-      </c>
-      <c r="N54" t="n">
-        <v>13795037000000</v>
-      </c>
-      <c r="O54" t="n">
-        <v>17458686000000</v>
-      </c>
-      <c r="P54" t="n">
-        <v>15237040225860</v>
-      </c>
-      <c r="Q54" t="n">
         <v>18404565000000</v>
       </c>
+      <c r="N54" t="inlineStr"/>
+      <c r="O54" t="inlineStr"/>
+      <c r="P54" t="inlineStr"/>
+      <c r="Q54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -2392,53 +2214,45 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>10708673000000</v>
+        <v>9859183000000</v>
       </c>
       <c r="C55" t="n">
-        <v>11262923000000</v>
+        <v>13398020000000</v>
       </c>
       <c r="D55" t="n">
-        <v>11538956000000</v>
+        <v>14253862000000</v>
       </c>
       <c r="E55" t="n">
-        <v>9979956000000</v>
+        <v>14061054000000</v>
       </c>
       <c r="F55" t="n">
-        <v>9859183000000</v>
+        <v>13644642000000</v>
       </c>
       <c r="G55" t="n">
-        <v>13398020000000</v>
+        <v>10122841000000</v>
       </c>
       <c r="H55" t="n">
-        <v>14253862000000</v>
+        <v>7235549000000</v>
       </c>
       <c r="I55" t="n">
-        <v>14061054000000</v>
+        <v>6207355000000</v>
       </c>
       <c r="J55" t="n">
-        <v>13644642000000</v>
+        <v>8082277000000</v>
       </c>
       <c r="K55" t="n">
-        <v>10122841000000</v>
+        <v>11499321000000</v>
       </c>
       <c r="L55" t="n">
-        <v>7235549000000</v>
+        <v>8408846403165</v>
       </c>
       <c r="M55" t="n">
-        <v>6207355000000</v>
-      </c>
-      <c r="N55" t="n">
-        <v>8082277000000</v>
-      </c>
-      <c r="O55" t="n">
-        <v>11499321000000</v>
-      </c>
-      <c r="P55" t="n">
-        <v>8408846403165</v>
-      </c>
-      <c r="Q55" t="n">
         <v>11420828000000</v>
       </c>
+      <c r="N55" t="inlineStr"/>
+      <c r="O55" t="inlineStr"/>
+      <c r="P55" t="inlineStr"/>
+      <c r="Q55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -2447,53 +2261,45 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>4053332000000</v>
+        <v>3807920000000</v>
       </c>
       <c r="C56" t="n">
-        <v>4028548000000</v>
+        <v>2640237000000</v>
       </c>
       <c r="D56" t="n">
-        <v>3668710000000</v>
+        <v>2696350000000</v>
       </c>
       <c r="E56" t="n">
-        <v>3695797000000</v>
+        <v>2730944000000</v>
       </c>
       <c r="F56" t="n">
-        <v>3807920000000</v>
+        <v>2656550000000</v>
       </c>
       <c r="G56" t="n">
-        <v>2640237000000</v>
+        <v>2769866000000</v>
       </c>
       <c r="H56" t="n">
-        <v>2696350000000</v>
+        <v>2536829000000</v>
       </c>
       <c r="I56" t="n">
-        <v>2730944000000</v>
+        <v>2577039000000</v>
       </c>
       <c r="J56" t="n">
-        <v>2656550000000</v>
+        <v>2702648000000</v>
       </c>
       <c r="K56" t="n">
-        <v>2769866000000</v>
+        <v>2808476000000</v>
       </c>
       <c r="L56" t="n">
-        <v>2536829000000</v>
+        <v>5614473057160</v>
       </c>
       <c r="M56" t="n">
-        <v>2577039000000</v>
-      </c>
-      <c r="N56" t="n">
-        <v>2702648000000</v>
-      </c>
-      <c r="O56" t="n">
-        <v>2808476000000</v>
-      </c>
-      <c r="P56" t="n">
-        <v>5614473057160</v>
-      </c>
-      <c r="Q56" t="n">
         <v>3811225000000</v>
       </c>
+      <c r="N56" t="inlineStr"/>
+      <c r="O56" t="inlineStr"/>
+      <c r="P56" t="inlineStr"/>
+      <c r="Q56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -2502,41 +2308,41 @@
         </is>
       </c>
       <c r="B57" t="inlineStr"/>
-      <c r="C57" t="inlineStr"/>
-      <c r="D57" t="inlineStr"/>
-      <c r="E57" t="inlineStr"/>
-      <c r="F57" t="inlineStr"/>
+      <c r="C57" t="n">
+        <v>46000000</v>
+      </c>
+      <c r="D57" t="n">
+        <v>50000000</v>
+      </c>
+      <c r="E57" t="n">
+        <v>53000000</v>
+      </c>
+      <c r="F57" t="n">
+        <v>57000000</v>
+      </c>
       <c r="G57" t="n">
-        <v>46000000</v>
+        <v>61000000</v>
       </c>
       <c r="H57" t="n">
+        <v>66000000</v>
+      </c>
+      <c r="I57" t="n">
+        <v>72000000</v>
+      </c>
+      <c r="J57" t="n">
+        <v>63000000</v>
+      </c>
+      <c r="K57" t="n">
         <v>50000000</v>
       </c>
-      <c r="I57" t="n">
-        <v>53000000</v>
-      </c>
-      <c r="J57" t="n">
-        <v>57000000</v>
-      </c>
-      <c r="K57" t="n">
-        <v>61000000</v>
-      </c>
-      <c r="L57" t="n">
-        <v>66000000</v>
-      </c>
+      <c r="L57" t="inlineStr"/>
       <c r="M57" t="n">
-        <v>72000000</v>
-      </c>
-      <c r="N57" t="n">
-        <v>63000000</v>
-      </c>
-      <c r="O57" t="n">
-        <v>50000000</v>
-      </c>
+        <v>25000000</v>
+      </c>
+      <c r="N57" t="inlineStr"/>
+      <c r="O57" t="inlineStr"/>
       <c r="P57" t="inlineStr"/>
-      <c r="Q57" t="n">
-        <v>25000000</v>
-      </c>
+      <c r="Q57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -2545,53 +2351,45 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>5569897000000</v>
+        <v>5101933000000</v>
       </c>
       <c r="C58" t="n">
-        <v>5527755000000</v>
+        <v>5161649000000</v>
       </c>
       <c r="D58" t="n">
-        <v>5515893000000</v>
+        <v>5089345000000</v>
       </c>
       <c r="E58" t="n">
-        <v>5176107000000</v>
+        <v>4806033000000</v>
       </c>
       <c r="F58" t="n">
-        <v>5101933000000</v>
+        <v>4665304000000</v>
       </c>
       <c r="G58" t="n">
-        <v>5161649000000</v>
+        <v>4545971000000</v>
       </c>
       <c r="H58" t="n">
-        <v>5089345000000</v>
+        <v>4105114000000</v>
       </c>
       <c r="I58" t="n">
-        <v>4806033000000</v>
+        <v>3555801000000</v>
       </c>
       <c r="J58" t="n">
-        <v>4665304000000</v>
+        <v>3237799000000</v>
       </c>
       <c r="K58" t="n">
-        <v>4545971000000</v>
+        <v>3218269000000</v>
       </c>
       <c r="L58" t="n">
-        <v>4105114000000</v>
+        <v>1257413680536</v>
       </c>
       <c r="M58" t="n">
-        <v>3555801000000</v>
-      </c>
-      <c r="N58" t="n">
-        <v>3237799000000</v>
-      </c>
-      <c r="O58" t="n">
-        <v>3218269000000</v>
-      </c>
-      <c r="P58" t="n">
-        <v>1257413680536</v>
-      </c>
-      <c r="Q58" t="n">
         <v>3242909000000</v>
       </c>
+      <c r="N58" t="inlineStr"/>
+      <c r="O58" t="inlineStr"/>
+      <c r="P58" t="inlineStr"/>
+      <c r="Q58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -2600,53 +2398,45 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>57569000000</v>
+        <v>47580000000</v>
       </c>
       <c r="C59" t="n">
-        <v>55053000000</v>
+        <v>45071000000</v>
       </c>
       <c r="D59" t="n">
-        <v>52571000000</v>
+        <v>42609000000</v>
       </c>
       <c r="E59" t="n">
-        <v>50089000000</v>
+        <v>40121000000</v>
       </c>
       <c r="F59" t="n">
-        <v>47580000000</v>
+        <v>37605000000</v>
       </c>
       <c r="G59" t="n">
-        <v>45071000000</v>
+        <v>35088000000</v>
       </c>
       <c r="H59" t="n">
-        <v>42609000000</v>
+        <v>32627000000</v>
       </c>
       <c r="I59" t="n">
-        <v>40121000000</v>
+        <v>30138000000</v>
       </c>
       <c r="J59" t="n">
-        <v>37605000000</v>
+        <v>27622000000</v>
       </c>
       <c r="K59" t="n">
-        <v>35088000000</v>
+        <v>25106000000</v>
       </c>
       <c r="L59" t="n">
-        <v>32627000000</v>
+        <v>12641913842</v>
       </c>
       <c r="M59" t="n">
-        <v>30138000000</v>
-      </c>
-      <c r="N59" t="n">
-        <v>27622000000</v>
-      </c>
-      <c r="O59" t="n">
-        <v>25106000000</v>
-      </c>
-      <c r="P59" t="n">
-        <v>12641913842</v>
-      </c>
-      <c r="Q59" t="n">
         <v>20156000000</v>
       </c>
+      <c r="N59" t="inlineStr"/>
+      <c r="O59" t="inlineStr"/>
+      <c r="P59" t="inlineStr"/>
+      <c r="Q59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -2839,53 +2629,45 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>148342376000000</v>
+        <v>166489341000000</v>
       </c>
       <c r="C68" t="n">
-        <v>156977945000000</v>
+        <v>176697625000000</v>
       </c>
       <c r="D68" t="n">
-        <v>154766381000000</v>
+        <v>186907995000000</v>
       </c>
       <c r="E68" t="n">
-        <v>164740405000000</v>
+        <v>183124438000000</v>
       </c>
       <c r="F68" t="n">
-        <v>166489341000000</v>
+        <v>195513048000000</v>
       </c>
       <c r="G68" t="n">
-        <v>176697625000000</v>
+        <v>203665423000000</v>
       </c>
       <c r="H68" t="n">
-        <v>186907995000000</v>
+        <v>195740713000000</v>
       </c>
       <c r="I68" t="n">
-        <v>183124438000000</v>
+        <v>195057359000000</v>
       </c>
       <c r="J68" t="n">
-        <v>195513048000000</v>
+        <v>194182015000000</v>
       </c>
       <c r="K68" t="n">
-        <v>203665423000000</v>
+        <v>213393858000000</v>
       </c>
       <c r="L68" t="n">
-        <v>195740713000000</v>
+        <v>278789549804755</v>
       </c>
       <c r="M68" t="n">
-        <v>195057359000000</v>
-      </c>
-      <c r="N68" t="n">
-        <v>194182015000000</v>
-      </c>
-      <c r="O68" t="n">
-        <v>213393858000000</v>
-      </c>
-      <c r="P68" t="n">
-        <v>278789549804755</v>
-      </c>
-      <c r="Q68" t="n">
         <v>237815975000000</v>
       </c>
+      <c r="N68" t="inlineStr"/>
+      <c r="O68" t="inlineStr"/>
+      <c r="P68" t="inlineStr"/>
+      <c r="Q68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -2894,53 +2676,45 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>24071000000</v>
+        <v>20819000000</v>
       </c>
       <c r="C69" t="n">
-        <v>24040000000</v>
+        <v>20734000000</v>
       </c>
       <c r="D69" t="n">
-        <v>22812000000</v>
+        <v>19107000000</v>
       </c>
       <c r="E69" t="n">
-        <v>22450000000</v>
+        <v>19061000000</v>
       </c>
       <c r="F69" t="n">
-        <v>20819000000</v>
+        <v>1008490000000</v>
       </c>
       <c r="G69" t="n">
-        <v>20734000000</v>
+        <v>1017253000000</v>
       </c>
       <c r="H69" t="n">
-        <v>19107000000</v>
+        <v>1015701000000</v>
       </c>
       <c r="I69" t="n">
-        <v>19061000000</v>
+        <v>1015979000000</v>
       </c>
       <c r="J69" t="n">
-        <v>1008490000000</v>
+        <v>1014733000000</v>
       </c>
       <c r="K69" t="n">
-        <v>1017253000000</v>
+        <v>1014560000000</v>
       </c>
       <c r="L69" t="n">
-        <v>1015701000000</v>
+        <v>1055792728764</v>
       </c>
       <c r="M69" t="n">
-        <v>1015979000000</v>
-      </c>
-      <c r="N69" t="n">
-        <v>1014733000000</v>
-      </c>
-      <c r="O69" t="n">
-        <v>1014560000000</v>
-      </c>
-      <c r="P69" t="n">
-        <v>1055792728764</v>
-      </c>
-      <c r="Q69" t="n">
         <v>1012898000000</v>
       </c>
+      <c r="N69" t="inlineStr"/>
+      <c r="O69" t="inlineStr"/>
+      <c r="P69" t="inlineStr"/>
+      <c r="Q69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -3156,53 +2930,45 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>40463661000000</v>
+        <v>56370990000000</v>
       </c>
       <c r="C79" t="n">
-        <v>47017860000000</v>
+        <v>56025723000000</v>
       </c>
       <c r="D79" t="n">
-        <v>47351964000000</v>
+        <v>62584149000000</v>
       </c>
       <c r="E79" t="n">
-        <v>53420949000000</v>
+        <v>58004282000000</v>
       </c>
       <c r="F79" t="n">
-        <v>56370990000000</v>
+        <v>60235702000000</v>
       </c>
       <c r="G79" t="n">
-        <v>56025723000000</v>
+        <v>68035603000000</v>
       </c>
       <c r="H79" t="n">
-        <v>62584149000000</v>
+        <v>58067553000000</v>
       </c>
       <c r="I79" t="n">
-        <v>58004282000000</v>
+        <v>52121729000000</v>
       </c>
       <c r="J79" t="n">
-        <v>60235702000000</v>
+        <v>53503283000000</v>
       </c>
       <c r="K79" t="n">
-        <v>68035603000000</v>
+        <v>50374160000000</v>
       </c>
       <c r="L79" t="n">
-        <v>58067553000000</v>
+        <v>93737966721693</v>
       </c>
       <c r="M79" t="n">
-        <v>52121729000000</v>
-      </c>
-      <c r="N79" t="n">
-        <v>53503283000000</v>
-      </c>
-      <c r="O79" t="n">
-        <v>50374160000000</v>
-      </c>
-      <c r="P79" t="n">
-        <v>93737966721693</v>
-      </c>
-      <c r="Q79" t="n">
         <v>66315420000000</v>
       </c>
+      <c r="N79" t="inlineStr"/>
+      <c r="O79" t="inlineStr"/>
+      <c r="P79" t="inlineStr"/>
+      <c r="Q79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -3211,53 +2977,45 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>22287824000000</v>
+        <v>27647786000000</v>
       </c>
       <c r="C80" t="n">
-        <v>19211556000000</v>
+        <v>22447288000000</v>
       </c>
       <c r="D80" t="n">
-        <v>18951516000000</v>
+        <v>29936853000000</v>
       </c>
       <c r="E80" t="n">
-        <v>23934758000000</v>
+        <v>25474715000000</v>
       </c>
       <c r="F80" t="n">
-        <v>27647786000000</v>
+        <v>26898982000000</v>
       </c>
       <c r="G80" t="n">
-        <v>22447288000000</v>
+        <v>34078939000000</v>
       </c>
       <c r="H80" t="n">
-        <v>29936853000000</v>
+        <v>29838956000000</v>
       </c>
       <c r="I80" t="n">
-        <v>25474715000000</v>
+        <v>25293135000000</v>
       </c>
       <c r="J80" t="n">
-        <v>26898982000000</v>
+        <v>27781345000000</v>
       </c>
       <c r="K80" t="n">
-        <v>34078939000000</v>
+        <v>29339865000000</v>
       </c>
       <c r="L80" t="n">
-        <v>29838956000000</v>
+        <v>48489553502712</v>
       </c>
       <c r="M80" t="n">
-        <v>25293135000000</v>
-      </c>
-      <c r="N80" t="n">
-        <v>27781345000000</v>
-      </c>
-      <c r="O80" t="n">
-        <v>29339865000000</v>
-      </c>
-      <c r="P80" t="n">
-        <v>48489553502712</v>
-      </c>
-      <c r="Q80" t="n">
         <v>43662173000000</v>
       </c>
+      <c r="N80" t="inlineStr"/>
+      <c r="O80" t="inlineStr"/>
+      <c r="P80" t="inlineStr"/>
+      <c r="Q80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -3266,53 +3024,45 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>18175837000000</v>
+        <v>28723204000000</v>
       </c>
       <c r="C81" t="n">
-        <v>27806304000000</v>
+        <v>33578435000000</v>
       </c>
       <c r="D81" t="n">
-        <v>28400448</v>
+        <v>32647296000000</v>
       </c>
       <c r="E81" t="n">
-        <v>29486191000000</v>
+        <v>32529567000000</v>
       </c>
       <c r="F81" t="n">
-        <v>28723204000000</v>
+        <v>33336720000000</v>
       </c>
       <c r="G81" t="n">
-        <v>33578435000000</v>
+        <v>33956664000000</v>
       </c>
       <c r="H81" t="n">
-        <v>32647296000000</v>
+        <v>28228597000000</v>
       </c>
       <c r="I81" t="n">
-        <v>32529567000000</v>
+        <v>26828594000000</v>
       </c>
       <c r="J81" t="n">
-        <v>33336720000000</v>
+        <v>25721938000000</v>
       </c>
       <c r="K81" t="n">
-        <v>33956664000000</v>
+        <v>21034295000000</v>
       </c>
       <c r="L81" t="n">
-        <v>28228597000000</v>
+        <v>45248413218981</v>
       </c>
       <c r="M81" t="n">
-        <v>26828594000000</v>
-      </c>
-      <c r="N81" t="n">
-        <v>25721938000000</v>
-      </c>
-      <c r="O81" t="n">
-        <v>21034295000000</v>
-      </c>
-      <c r="P81" t="n">
-        <v>45248413218981</v>
-      </c>
-      <c r="Q81" t="n">
         <v>22653247000000</v>
       </c>
+      <c r="N81" t="inlineStr"/>
+      <c r="O81" t="inlineStr"/>
+      <c r="P81" t="inlineStr"/>
+      <c r="Q81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -3367,53 +3117,45 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>77342806000000</v>
+        <v>80029059000000</v>
       </c>
       <c r="C84" t="n">
-        <v>80872643000000</v>
+        <v>87510188000000</v>
       </c>
       <c r="D84" t="n">
-        <v>81525008000000</v>
+        <v>91823350000000</v>
       </c>
       <c r="E84" t="n">
-        <v>83191281000000</v>
+        <v>86045919000000</v>
       </c>
       <c r="F84" t="n">
-        <v>80029059000000</v>
+        <v>94001785000000</v>
       </c>
       <c r="G84" t="n">
-        <v>87510188000000</v>
+        <v>94616419000000</v>
       </c>
       <c r="H84" t="n">
-        <v>91823350000000</v>
+        <v>96203566000000</v>
       </c>
       <c r="I84" t="n">
-        <v>86045919000000</v>
+        <v>98326314000000</v>
       </c>
       <c r="J84" t="n">
-        <v>94001785000000</v>
+        <v>95678811000000</v>
       </c>
       <c r="K84" t="n">
-        <v>94616419000000</v>
+        <v>117120779000000</v>
       </c>
       <c r="L84" t="n">
-        <v>96203566000000</v>
+        <v>137823543683438</v>
       </c>
       <c r="M84" t="n">
-        <v>98326314000000</v>
-      </c>
-      <c r="N84" t="n">
-        <v>95678811000000</v>
-      </c>
-      <c r="O84" t="n">
-        <v>117120779000000</v>
-      </c>
-      <c r="P84" t="n">
-        <v>137823543683438</v>
-      </c>
-      <c r="Q84" t="n">
         <v>126257912000000</v>
       </c>
+      <c r="N84" t="inlineStr"/>
+      <c r="O84" t="inlineStr"/>
+      <c r="P84" t="inlineStr"/>
+      <c r="Q84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -3629,35 +3371,31 @@
         </is>
       </c>
       <c r="B94" t="inlineStr"/>
-      <c r="C94" t="inlineStr"/>
-      <c r="D94" t="n">
-        <v>85469000000</v>
-      </c>
-      <c r="E94" t="n">
-        <v>60840000000</v>
-      </c>
-      <c r="F94" t="inlineStr"/>
+      <c r="C94" t="n">
+        <v>52030000000</v>
+      </c>
+      <c r="D94" t="inlineStr"/>
+      <c r="E94" t="inlineStr"/>
+      <c r="F94" t="n">
+        <v>99004000000</v>
+      </c>
       <c r="G94" t="n">
-        <v>52030000000</v>
+        <v>76833000000</v>
       </c>
       <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="n">
-        <v>99004000000</v>
-      </c>
-      <c r="K94" t="n">
-        <v>76833000000</v>
-      </c>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="inlineStr"/>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>340883231315</v>
+      </c>
+      <c r="M94" t="n">
+        <v>77489000000</v>
+      </c>
       <c r="N94" t="inlineStr"/>
       <c r="O94" t="inlineStr"/>
-      <c r="P94" t="n">
-        <v>340883231315</v>
-      </c>
-      <c r="Q94" t="n">
-        <v>77489000000</v>
-      </c>
+      <c r="P94" t="inlineStr"/>
+      <c r="Q94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -3735,53 +3473,45 @@
         </is>
       </c>
       <c r="B98" t="n">
-        <v>133661012000000</v>
+        <v>150327499000000</v>
       </c>
       <c r="C98" t="n">
-        <v>142114423000000</v>
+        <v>159822806000000</v>
       </c>
       <c r="D98" t="n">
-        <v>139700490000000</v>
+        <v>169126685000000</v>
       </c>
       <c r="E98" t="n">
-        <v>149107330000000</v>
+        <v>162816582000000</v>
       </c>
       <c r="F98" t="n">
-        <v>150327499000000</v>
+        <v>174224463000000</v>
       </c>
       <c r="G98" t="n">
-        <v>159822806000000</v>
+        <v>181627638000000</v>
       </c>
       <c r="H98" t="n">
-        <v>169126685000000</v>
+        <v>172625864000000</v>
       </c>
       <c r="I98" t="n">
-        <v>162816582000000</v>
+        <v>170479188000000</v>
       </c>
       <c r="J98" t="n">
-        <v>174224463000000</v>
+        <v>168385288000000</v>
       </c>
       <c r="K98" t="n">
-        <v>181627638000000</v>
+        <v>186739860000000</v>
       </c>
       <c r="L98" t="n">
-        <v>172625864000000</v>
+        <v>246484423876672</v>
       </c>
       <c r="M98" t="n">
-        <v>170479188000000</v>
-      </c>
-      <c r="N98" t="n">
-        <v>168385288000000</v>
-      </c>
-      <c r="O98" t="n">
-        <v>186739860000000</v>
-      </c>
-      <c r="P98" t="n">
-        <v>246484423876672</v>
-      </c>
-      <c r="Q98" t="n">
         <v>208298040000000</v>
       </c>
+      <c r="N98" t="inlineStr"/>
+      <c r="O98" t="inlineStr"/>
+      <c r="P98" t="inlineStr"/>
+      <c r="Q98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -3799,13 +3529,13 @@
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>20034068714533</v>
+      </c>
       <c r="M99" t="inlineStr"/>
       <c r="N99" t="inlineStr"/>
       <c r="O99" t="inlineStr"/>
-      <c r="P99" t="n">
-        <v>20034068714533</v>
-      </c>
+      <c r="P99" t="inlineStr"/>
       <c r="Q99" t="inlineStr"/>
     </row>
     <row r="100">
@@ -3830,38 +3560,30 @@
         <v>11750000000000</v>
       </c>
       <c r="G100" t="n">
-        <v>11750000000000</v>
+        <v>15275000000000</v>
       </c>
       <c r="H100" t="n">
-        <v>11750000000000</v>
+        <v>15275000000000</v>
       </c>
       <c r="I100" t="n">
-        <v>11750000000000</v>
+        <v>15275000000000</v>
       </c>
       <c r="J100" t="n">
-        <v>11750000000000</v>
+        <v>15275000000000</v>
       </c>
       <c r="K100" t="n">
-        <v>15275000000000</v>
+        <v>19857500000000</v>
       </c>
       <c r="L100" t="n">
-        <v>15275000000000</v>
+        <v>20000000000000</v>
       </c>
       <c r="M100" t="n">
-        <v>15275000000000</v>
-      </c>
-      <c r="N100" t="n">
-        <v>15275000000000</v>
-      </c>
-      <c r="O100" t="n">
-        <v>19857500000000</v>
-      </c>
-      <c r="P100" t="n">
         <v>20000000000000</v>
       </c>
-      <c r="Q100" t="n">
-        <v>20000000000000</v>
-      </c>
+      <c r="N100" t="inlineStr"/>
+      <c r="O100" t="inlineStr"/>
+      <c r="P100" t="inlineStr"/>
+      <c r="Q100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -3946,23 +3668,15 @@
         <v>608000000</v>
       </c>
       <c r="L103" t="n">
-        <v>608000000</v>
+        <v>608428002</v>
       </c>
       <c r="M103" t="n">
         <v>608000000</v>
       </c>
-      <c r="N103" t="n">
-        <v>608000000</v>
-      </c>
-      <c r="O103" t="n">
-        <v>608000000</v>
-      </c>
-      <c r="P103" t="n">
-        <v>608428002</v>
-      </c>
-      <c r="Q103" t="n">
-        <v>608000000</v>
-      </c>
+      <c r="N103" t="inlineStr"/>
+      <c r="O103" t="inlineStr"/>
+      <c r="P103" t="inlineStr"/>
+      <c r="Q103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -3980,44 +3694,36 @@
         <v>400000000000</v>
       </c>
       <c r="E104" t="n">
-        <v>400000000000</v>
+        <v>498643000000</v>
       </c>
       <c r="F104" t="n">
-        <v>400000000000</v>
+        <v>492299000000</v>
       </c>
       <c r="G104" t="n">
-        <v>400000000000</v>
+        <v>491710000000</v>
       </c>
       <c r="H104" t="n">
-        <v>400000000000</v>
+        <v>491710000000</v>
       </c>
       <c r="I104" t="n">
-        <v>498643000000</v>
+        <v>491710000000</v>
       </c>
       <c r="J104" t="n">
-        <v>492299000000</v>
+        <v>491710000000</v>
       </c>
       <c r="K104" t="n">
-        <v>491710000000</v>
+        <v>33460000000</v>
       </c>
       <c r="L104" t="n">
-        <v>491710000000</v>
+        <v>33460286531</v>
       </c>
       <c r="M104" t="n">
-        <v>491710000000</v>
-      </c>
-      <c r="N104" t="n">
-        <v>491710000000</v>
-      </c>
-      <c r="O104" t="n">
         <v>33460000000</v>
       </c>
-      <c r="P104" t="n">
-        <v>33460286531</v>
-      </c>
-      <c r="Q104" t="n">
-        <v>33460000000</v>
-      </c>
+      <c r="N104" t="inlineStr"/>
+      <c r="O104" t="inlineStr"/>
+      <c r="P104" t="inlineStr"/>
+      <c r="Q104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -4035,20 +3741,12 @@
         <v>-1040655000000</v>
       </c>
       <c r="E105" t="n">
-        <v>-1040655000000</v>
-      </c>
-      <c r="F105" t="n">
-        <v>-1040655000000</v>
-      </c>
-      <c r="G105" t="n">
-        <v>-1040655000000</v>
-      </c>
-      <c r="H105" t="n">
-        <v>-1040655000000</v>
-      </c>
-      <c r="I105" t="n">
         <v>-186344000000</v>
       </c>
+      <c r="F105" t="inlineStr"/>
+      <c r="G105" t="inlineStr"/>
+      <c r="H105" t="inlineStr"/>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
       <c r="L105" t="inlineStr"/>
@@ -4180,53 +3878,45 @@
         </is>
       </c>
       <c r="B111" t="n">
-        <v>833481000000</v>
+        <v>989596000000</v>
       </c>
       <c r="C111" t="n">
-        <v>834122000000</v>
+        <v>989453000000</v>
       </c>
       <c r="D111" t="n">
-        <v>833608000000</v>
+        <v>1290988000000</v>
       </c>
       <c r="E111" t="n">
-        <v>989609000000</v>
+        <v>1290942000000</v>
       </c>
       <c r="F111" t="n">
-        <v>989596000000</v>
+        <v>1290942000000</v>
       </c>
       <c r="G111" t="n">
-        <v>989453000000</v>
+        <v>1276973000000</v>
       </c>
       <c r="H111" t="n">
-        <v>1290988000000</v>
+        <v>1276973000000</v>
       </c>
       <c r="I111" t="n">
-        <v>1290942000000</v>
+        <v>1896036000000</v>
       </c>
       <c r="J111" t="n">
-        <v>1290942000000</v>
+        <v>1896036000000</v>
       </c>
       <c r="K111" t="n">
-        <v>1276973000000</v>
+        <v>1896036000000</v>
       </c>
       <c r="L111" t="n">
-        <v>1276973000000</v>
+        <v>2589959591075</v>
       </c>
       <c r="M111" t="n">
-        <v>1896036000000</v>
-      </c>
-      <c r="N111" t="n">
-        <v>1896036000000</v>
-      </c>
-      <c r="O111" t="n">
-        <v>1896036000000</v>
-      </c>
-      <c r="P111" t="n">
-        <v>2589959591075</v>
-      </c>
-      <c r="Q111" t="n">
         <v>2589958000000</v>
       </c>
+      <c r="N111" t="inlineStr"/>
+      <c r="O111" t="inlineStr"/>
+      <c r="P111" t="inlineStr"/>
+      <c r="Q111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -4350,45 +4040,39 @@
         </is>
       </c>
       <c r="B117" t="n">
-        <v>-6777000000</v>
+        <v>-29818000000</v>
       </c>
       <c r="C117" t="inlineStr"/>
       <c r="D117" t="n">
-        <v>-22308000000</v>
+        <v>7838000000</v>
       </c>
       <c r="E117" t="n">
-        <v>-5375000000</v>
+        <v>5187000000</v>
       </c>
       <c r="F117" t="n">
-        <v>-29818000000</v>
+        <v>-3637000000</v>
       </c>
       <c r="G117" t="inlineStr"/>
       <c r="H117" t="n">
-        <v>7838000000</v>
+        <v>-72079000000</v>
       </c>
       <c r="I117" t="n">
-        <v>5187000000</v>
+        <v>-100750000000</v>
       </c>
       <c r="J117" t="n">
-        <v>-3637000000</v>
+        <v>-84961000000</v>
       </c>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="n">
-        <v>-72079000000</v>
+        <v>-187034630392</v>
       </c>
       <c r="M117" t="n">
-        <v>-100750000000</v>
-      </c>
-      <c r="N117" t="n">
-        <v>-84961000000</v>
-      </c>
+        <v>28733000000</v>
+      </c>
+      <c r="N117" t="inlineStr"/>
       <c r="O117" t="inlineStr"/>
-      <c r="P117" t="n">
-        <v>-187034630392</v>
-      </c>
-      <c r="Q117" t="n">
-        <v>28733000000</v>
-      </c>
+      <c r="P117" t="inlineStr"/>
+      <c r="Q117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
